--- a/backend/data/output/output.xlsx
+++ b/backend/data/output/output.xlsx
@@ -573,7 +573,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Ms. Rubbina</t>
+          <t>Ms. Geetanjali Pandey</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Ms. Rubbina</t>
+          <t>Dr. Dhawan Singh</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>ANKUR GUPTA</t>
+          <t>Ms. Bhavna Nayyar</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>ANKUR GUPTA</t>
+          <t>Dr. Monika Singh</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Ms. Geetanjali Pandey</t>
+          <t>Shubham Banik</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>ANKUR GUPTA</t>
+          <t>Ms. Pavandeep Kaur</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Ms. Rubbina</t>
+          <t>Dr. Ranjan Walia</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Ms. Rubbina</t>
+          <t>Dr. Deepti Sharma</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>ANKUR GUPTA</t>
+          <t>Dr. Dhawan Singh</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Ms. Rubbina</t>
+          <t>Ms. Bhavna Nayyar</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>ANKUR GUPTA</t>
+          <t>Dr. Monika Singh</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>ANKUR GUPTA</t>
+          <t>Dr. Ranjan Walia</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Ms. Rubbina</t>
+          <t>Dr. Deepti Sharma</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>ANKUR GUPTA</t>
+          <t>Ms. Geetanjali Pandey</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2024-04-27</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Ms. Rubbina</t>
+          <t>Dr. Monika Singh</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>ANKUR GUPTA</t>
+          <t>Ms. Pavandeep Kaur</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Ms. Geetanjali Pandey</t>
+          <t>Dr. Ranjan Walia</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Ms. Geetanjali Pandey</t>
+          <t>Dr. Deepti Sharma</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Ms. Geetanjali Pandey</t>
+          <t>ANKUR GUPTA</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2080,12 +2080,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Dr. Ankit Garg</t>
+          <t>Dr. Dhawan Singh</t>
         </is>
       </c>
     </row>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2024-04-27</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Dr. Ankit Garg</t>
+          <t>Ms. Rubbina</t>
         </is>
       </c>
     </row>
@@ -2219,17 +2219,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>11:15 AM - 12:45 PM</t>
+          <t>1:15 PM - 2:45 PM</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Dr. Ankit Garg</t>
+          <t>Dr. Ranjan Walia</t>
         </is>
       </c>
     </row>
@@ -2291,17 +2291,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1:15 PM - 2:45 PM</t>
+          <t>11:15 AM - 12:45 PM</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Dr. Ankit Garg</t>
+          <t>ANKUR GUPTA</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2024-04-27</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Ms. Geetanjali Pandey</t>
+          <t>Ms. Rubbina</t>
         </is>
       </c>
     </row>
@@ -2507,17 +2507,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1:15 PM - 2:45 PM</t>
+          <t>3:00 PM - 4:30 PM</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Ms. Geetanjali Pandey</t>
+          <t>Dr. Ranjan Walia</t>
         </is>
       </c>
     </row>
@@ -2579,17 +2579,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>3:00 PM - 4:30 PM</t>
+          <t>1:15 PM - 2:45 PM</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Shubham Banik</t>
+          <t>Dr. Ankit Garg</t>
         </is>
       </c>
     </row>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Dr. Ankit Garg</t>
+          <t>ANKUR GUPTA</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Dr. Ankit Garg</t>
+          <t>Ms. Geetanjali Pandey</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Dr. Ankit Garg</t>
+          <t>Ms. Rubbina</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Dr. Ankit Garg</t>
+          <t>Shubham Banik</t>
         </is>
       </c>
     </row>
@@ -2939,17 +2939,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>9:30 AM - 11:00 AM</t>
+          <t>11:15 AM - 12:45 PM</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Shubham Banik</t>
+          <t>Ms. Pavandeep Kaur</t>
         </is>
       </c>
     </row>
